--- a/data/pca/factorExposure/factorExposure_2012-11-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001701554218449344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002155214444565162</v>
+      </c>
+      <c r="C2">
+        <v>-0.02969094888591844</v>
+      </c>
+      <c r="D2">
+        <v>0.004684364967318902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001481633090381414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00686536305756343</v>
+      </c>
+      <c r="C4">
+        <v>-0.08263884736337188</v>
+      </c>
+      <c r="D4">
+        <v>0.07532995630214316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003159829744353233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01454708152906176</v>
+      </c>
+      <c r="C6">
+        <v>-0.1145412320213332</v>
+      </c>
+      <c r="D6">
+        <v>0.03171299609127026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002138665602025427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004924694067116512</v>
+      </c>
+      <c r="C7">
+        <v>-0.05832096641729588</v>
+      </c>
+      <c r="D7">
+        <v>0.03244405871641797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004154964457498716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005970471969734463</v>
+      </c>
+      <c r="C8">
+        <v>-0.03654119839435149</v>
+      </c>
+      <c r="D8">
+        <v>0.04111152755138566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004061546502025603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.005032440435368603</v>
+      </c>
+      <c r="C9">
+        <v>-0.07078820342724423</v>
+      </c>
+      <c r="D9">
+        <v>0.0728338174030061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001520522510555323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005715348908145706</v>
+      </c>
+      <c r="C10">
+        <v>-0.05651300657936052</v>
+      </c>
+      <c r="D10">
+        <v>-0.1970701484242189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004500190915502174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005530101845574287</v>
+      </c>
+      <c r="C11">
+        <v>-0.07919684173122893</v>
+      </c>
+      <c r="D11">
+        <v>0.06317450564358693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00152050151992876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003911965183553952</v>
+      </c>
+      <c r="C12">
+        <v>-0.06346632434352004</v>
+      </c>
+      <c r="D12">
+        <v>0.04917937539383171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001981215231176706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009086129046604979</v>
+      </c>
+      <c r="C13">
+        <v>-0.06957526832461662</v>
+      </c>
+      <c r="D13">
+        <v>0.05668362418476181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002345476067504888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001127785093457149</v>
+      </c>
+      <c r="C14">
+        <v>-0.04355843039560488</v>
+      </c>
+      <c r="D14">
+        <v>0.006670773753982027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0007590495964338871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006058431660051556</v>
+      </c>
+      <c r="C15">
+        <v>-0.04217215322925567</v>
+      </c>
+      <c r="D15">
+        <v>0.03021920000907212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002283047251750083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004918318773881537</v>
+      </c>
+      <c r="C16">
+        <v>-0.06436212390393957</v>
+      </c>
+      <c r="D16">
+        <v>0.0541987877277995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0009997295958111161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008763421236930266</v>
+      </c>
+      <c r="C20">
+        <v>-0.06558235489247945</v>
+      </c>
+      <c r="D20">
+        <v>0.04287387158576931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005977473948014096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009810679854730863</v>
+      </c>
+      <c r="C21">
+        <v>-0.02143843248944908</v>
+      </c>
+      <c r="D21">
+        <v>0.0380952889576901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01763338569352655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00623101785361505</v>
+      </c>
+      <c r="C22">
+        <v>-0.09474645567080528</v>
+      </c>
+      <c r="D22">
+        <v>0.1141658914535748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01794157434447571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006022763420971227</v>
+      </c>
+      <c r="C23">
+        <v>-0.09560090126704592</v>
+      </c>
+      <c r="D23">
+        <v>0.113986556666013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003636182266553998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005383163717213197</v>
+      </c>
+      <c r="C24">
+        <v>-0.07561702043445355</v>
+      </c>
+      <c r="D24">
+        <v>0.06665469241667105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005775739892906955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.00316935535290604</v>
+      </c>
+      <c r="C25">
+        <v>-0.0778444788891411</v>
+      </c>
+      <c r="D25">
+        <v>0.06469507458417993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004330674623264494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003590497980122122</v>
+      </c>
+      <c r="C26">
+        <v>-0.03963187331700443</v>
+      </c>
+      <c r="D26">
+        <v>0.02207337607582675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007423503496905804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000913430170902579</v>
+      </c>
+      <c r="C28">
+        <v>-0.1054545077256068</v>
+      </c>
+      <c r="D28">
+        <v>-0.3198523742270241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001525409670561752</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002913043221225493</v>
+      </c>
+      <c r="C29">
+        <v>-0.0495449606007142</v>
+      </c>
+      <c r="D29">
+        <v>0.008094467947481417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005164549819441278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01013643092037586</v>
+      </c>
+      <c r="C30">
+        <v>-0.1424042741588484</v>
+      </c>
+      <c r="D30">
+        <v>0.1050866034708789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001659485580554053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00643398656876548</v>
+      </c>
+      <c r="C31">
+        <v>-0.04465548495591395</v>
+      </c>
+      <c r="D31">
+        <v>0.02917299119516908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005166940670497137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00370168074878893</v>
+      </c>
+      <c r="C32">
+        <v>-0.03859313961711774</v>
+      </c>
+      <c r="D32">
+        <v>0.02618133907541059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003713561201352218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008560099068466536</v>
+      </c>
+      <c r="C33">
+        <v>-0.08676392012515283</v>
+      </c>
+      <c r="D33">
+        <v>0.06530935565657493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005211865966334461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003992095993174987</v>
+      </c>
+      <c r="C34">
+        <v>-0.05748092717044995</v>
+      </c>
+      <c r="D34">
+        <v>0.05583705464600292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007006189036098589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005119853189880741</v>
+      </c>
+      <c r="C35">
+        <v>-0.03982405318883461</v>
+      </c>
+      <c r="D35">
+        <v>0.01878868052065004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004531259744280006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001045521798152526</v>
+      </c>
+      <c r="C36">
+        <v>-0.02536926509289242</v>
+      </c>
+      <c r="D36">
+        <v>0.02261141252064515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001050105731956557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.008948743947464217</v>
+      </c>
+      <c r="C38">
+        <v>-0.03443761606243181</v>
+      </c>
+      <c r="D38">
+        <v>0.01577817378879141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01410194588210008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001007230925539115</v>
+      </c>
+      <c r="C39">
+        <v>-0.1150216687486177</v>
+      </c>
+      <c r="D39">
+        <v>0.07563456024740221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009434564169052851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003596058885272962</v>
+      </c>
+      <c r="C40">
+        <v>-0.09034863624771018</v>
+      </c>
+      <c r="D40">
+        <v>0.01263321281528822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008517327635477165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007166866480724502</v>
+      </c>
+      <c r="C41">
+        <v>-0.03759209568198462</v>
+      </c>
+      <c r="D41">
+        <v>0.03857058990041467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003728850651073161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00389944004129365</v>
+      </c>
+      <c r="C43">
+        <v>-0.05349903760855502</v>
+      </c>
+      <c r="D43">
+        <v>0.02547541605902056</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01642876318581975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003025781563136506</v>
+      </c>
+      <c r="C44">
+        <v>-0.1084257521552005</v>
+      </c>
+      <c r="D44">
+        <v>0.06476595069625393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0004469392415947023</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002177260333153613</v>
+      </c>
+      <c r="C46">
+        <v>-0.0326399658719655</v>
+      </c>
+      <c r="D46">
+        <v>0.03389653476282965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.00124450211920272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002381832411190127</v>
+      </c>
+      <c r="C47">
+        <v>-0.03635257868001466</v>
+      </c>
+      <c r="D47">
+        <v>0.02088492615638218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003864032316030132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006734396526251388</v>
+      </c>
+      <c r="C48">
+        <v>-0.03076598530666083</v>
+      </c>
+      <c r="D48">
+        <v>0.03378519961134723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01339544498662543</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01639631109846687</v>
+      </c>
+      <c r="C49">
+        <v>-0.1860247651667993</v>
+      </c>
+      <c r="D49">
+        <v>0.01709399927777273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002065562351073451</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003801410715896557</v>
+      </c>
+      <c r="C50">
+        <v>-0.04340997499274841</v>
+      </c>
+      <c r="D50">
+        <v>0.03680646826315929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003460430617735251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004806045247104803</v>
+      </c>
+      <c r="C51">
+        <v>-0.02529983600810193</v>
+      </c>
+      <c r="D51">
+        <v>0.0194305947151436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0005480296664733172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02114668306217272</v>
+      </c>
+      <c r="C53">
+        <v>-0.1694544983900997</v>
+      </c>
+      <c r="D53">
+        <v>0.02815434297666106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001820408643757841</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008875492101345967</v>
+      </c>
+      <c r="C54">
+        <v>-0.05419449344355832</v>
+      </c>
+      <c r="D54">
+        <v>0.04543451815495417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005500493641719688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009561478907534853</v>
+      </c>
+      <c r="C55">
+        <v>-0.10976738111486</v>
+      </c>
+      <c r="D55">
+        <v>0.03844373386087196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0004124186690329963</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02038703439067417</v>
+      </c>
+      <c r="C56">
+        <v>-0.1751395066044207</v>
+      </c>
+      <c r="D56">
+        <v>0.0192242932222332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009760295500628414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01953208128396381</v>
+      </c>
+      <c r="C58">
+        <v>-0.1102037409144829</v>
+      </c>
+      <c r="D58">
+        <v>0.06149435725563419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009417033346537951</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01031249132211679</v>
+      </c>
+      <c r="C59">
+        <v>-0.1652919742452907</v>
+      </c>
+      <c r="D59">
+        <v>-0.3328846620210064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005608551600146615</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02532897631251222</v>
+      </c>
+      <c r="C60">
+        <v>-0.2242468768509747</v>
+      </c>
+      <c r="D60">
+        <v>0.02647528636170584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01536441836860251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001724979004071953</v>
+      </c>
+      <c r="C61">
+        <v>-0.09452237536877166</v>
+      </c>
+      <c r="D61">
+        <v>0.05706394522655057</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1594623787633991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1480882320952203</v>
+      </c>
+      <c r="C62">
+        <v>-0.09450430434255276</v>
+      </c>
+      <c r="D62">
+        <v>0.03373882957990024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0006802400239716344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00673772043852433</v>
+      </c>
+      <c r="C63">
+        <v>-0.05463928702336648</v>
+      </c>
+      <c r="D63">
+        <v>0.02686467945704295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0008794358571763023</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01537289966908567</v>
+      </c>
+      <c r="C64">
+        <v>-0.1047295213718828</v>
+      </c>
+      <c r="D64">
+        <v>0.06216723028333085</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.00180645119940032</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01800800815218409</v>
+      </c>
+      <c r="C65">
+        <v>-0.1239450789509249</v>
+      </c>
+      <c r="D65">
+        <v>0.02104064366531096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.00786815716238211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01344867540853804</v>
+      </c>
+      <c r="C66">
+        <v>-0.1592294505128916</v>
+      </c>
+      <c r="D66">
+        <v>0.1142242640749336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002777958953428554</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01548994695512731</v>
+      </c>
+      <c r="C67">
+        <v>-0.06557394257695133</v>
+      </c>
+      <c r="D67">
+        <v>0.0279821904623207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007456621368107805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001042080256937218</v>
+      </c>
+      <c r="C68">
+        <v>-0.08675678059520005</v>
+      </c>
+      <c r="D68">
+        <v>-0.2619372398190368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002419287230909654</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006102036689400582</v>
+      </c>
+      <c r="C69">
+        <v>-0.05050742942500058</v>
+      </c>
+      <c r="D69">
+        <v>0.03734697088463503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004417485871040798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00178845947442391</v>
+      </c>
+      <c r="C70">
+        <v>-0.002992850511824047</v>
+      </c>
+      <c r="D70">
+        <v>0.002306467131108499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001682439654174907</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005984567165704992</v>
+      </c>
+      <c r="C71">
+        <v>-0.0936021938769015</v>
+      </c>
+      <c r="D71">
+        <v>-0.3028687195898122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005466855932831488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01647551024263684</v>
+      </c>
+      <c r="C72">
+        <v>-0.1531676190419292</v>
+      </c>
+      <c r="D72">
+        <v>0.01507927007490988</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01554181345243009</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03152670144114673</v>
+      </c>
+      <c r="C73">
+        <v>-0.2823958782601819</v>
+      </c>
+      <c r="D73">
+        <v>0.05950702541318371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006925474722835232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002161638558966734</v>
+      </c>
+      <c r="C74">
+        <v>-0.1030050738582476</v>
+      </c>
+      <c r="D74">
+        <v>0.03521325288676091</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003952376192847703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0115642919115121</v>
+      </c>
+      <c r="C75">
+        <v>-0.1229152957188832</v>
+      </c>
+      <c r="D75">
+        <v>0.02082536062799259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.00586605333632942</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02274685307904031</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489753263052969</v>
+      </c>
+      <c r="D76">
+        <v>0.05625829782448568</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.004659270723427253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02281015696049461</v>
+      </c>
+      <c r="C77">
+        <v>-0.1152135219818997</v>
+      </c>
+      <c r="D77">
+        <v>0.07089875166282439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0003851454126478655</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0151715994639664</v>
+      </c>
+      <c r="C78">
+        <v>-0.09622488436024731</v>
+      </c>
+      <c r="D78">
+        <v>0.07303230162676244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02184170911806907</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03828754598694179</v>
+      </c>
+      <c r="C79">
+        <v>-0.1562176621168385</v>
+      </c>
+      <c r="D79">
+        <v>0.03156661201157735</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005621750378964536</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01001992676424909</v>
+      </c>
+      <c r="C80">
+        <v>-0.03990895607173572</v>
+      </c>
+      <c r="D80">
+        <v>0.02945917648220697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001105587899533214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01574324988036879</v>
+      </c>
+      <c r="C81">
+        <v>-0.1288672868150522</v>
+      </c>
+      <c r="D81">
+        <v>0.03997196620505684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002613388173322114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02022969912153371</v>
+      </c>
+      <c r="C82">
+        <v>-0.1393497786516032</v>
+      </c>
+      <c r="D82">
+        <v>0.04208023151933445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005059737143059674</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01057180212166222</v>
+      </c>
+      <c r="C83">
+        <v>-0.0536060232466503</v>
+      </c>
+      <c r="D83">
+        <v>0.05692783032660158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0130996107133474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01177211286711614</v>
+      </c>
+      <c r="C84">
+        <v>-0.03767483457521626</v>
+      </c>
+      <c r="D84">
+        <v>-0.001503310373421014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01237119727168142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.029264797793112</v>
+      </c>
+      <c r="C85">
+        <v>-0.1244936755151397</v>
+      </c>
+      <c r="D85">
+        <v>0.04277503487137246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002974407918469211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004647708005595809</v>
+      </c>
+      <c r="C86">
+        <v>-0.04820598571238821</v>
+      </c>
+      <c r="D86">
+        <v>0.03125714255436696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00406650621482401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01103312533696989</v>
+      </c>
+      <c r="C87">
+        <v>-0.1285851981945778</v>
+      </c>
+      <c r="D87">
+        <v>0.07107243098226475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01171113094831788</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002744205789357129</v>
+      </c>
+      <c r="C88">
+        <v>-0.06381337817494341</v>
+      </c>
+      <c r="D88">
+        <v>0.02111816580382641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01565123068563211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001168690733392553</v>
+      </c>
+      <c r="C89">
+        <v>-0.1461254587297909</v>
+      </c>
+      <c r="D89">
+        <v>-0.3296284590690513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.004005267272928611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006894369310175466</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208647597838056</v>
+      </c>
+      <c r="D90">
+        <v>-0.3161747842994212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001273176444911996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01060910254731413</v>
+      </c>
+      <c r="C91">
+        <v>-0.100370585616653</v>
+      </c>
+      <c r="D91">
+        <v>0.02238609397004555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01077525336166872</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001297286066630941</v>
+      </c>
+      <c r="C92">
+        <v>-0.1356551006190072</v>
+      </c>
+      <c r="D92">
+        <v>-0.3224043050767649</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.00255188353662179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00531557791003178</v>
+      </c>
+      <c r="C93">
+        <v>-0.1056807912146877</v>
+      </c>
+      <c r="D93">
+        <v>-0.3012866721063978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0008065420662978155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02256033759300302</v>
+      </c>
+      <c r="C94">
+        <v>-0.14492056054322</v>
+      </c>
+      <c r="D94">
+        <v>0.05175259140277383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003340692807133123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01720942068668282</v>
+      </c>
+      <c r="C95">
+        <v>-0.1232465671170338</v>
+      </c>
+      <c r="D95">
+        <v>0.06188676880795978</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002008979918265911</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03613207179250951</v>
+      </c>
+      <c r="C97">
+        <v>-0.2183499143474532</v>
+      </c>
+      <c r="D97">
+        <v>-0.01191562778572591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004133235625292107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03820257520848256</v>
+      </c>
+      <c r="C98">
+        <v>-0.2511349498394606</v>
+      </c>
+      <c r="D98">
+        <v>0.0458100468282794</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9850817138283808</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9814223514840558</v>
+      </c>
+      <c r="C99">
+        <v>0.119798349862855</v>
+      </c>
+      <c r="D99">
+        <v>-0.02552865866524572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001445813057543012</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002954182282941213</v>
+      </c>
+      <c r="C101">
+        <v>-0.04968159196599456</v>
+      </c>
+      <c r="D101">
+        <v>0.008476188390747008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
